--- a/Codemig/System/Optimization_results_1Hz.xlsx
+++ b/Codemig/System/Optimization_results_1Hz.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W25"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -387,19 +387,19 @@
         <v>1.9656</v>
       </c>
       <c r="N1">
-        <v>1185.235726908754</v>
+        <v>1110.796059715966</v>
       </c>
       <c r="O1">
-        <v>12.99346748979218</v>
+        <v>9.999339525352426</v>
       </c>
       <c r="P1">
-        <v>114.9612274248069</v>
+        <v>122.242840211201</v>
       </c>
       <c r="Q1">
-        <v>16.40792781449746</v>
+        <v>5.333143655957953</v>
       </c>
       <c r="R1">
-        <v>150.5507327366542</v>
+        <v>82.89836488045096</v>
       </c>
       <c r="S1">
         <v>714.8800673197269</v>
@@ -458,19 +458,19 @@
         <v>2.1168</v>
       </c>
       <c r="N2">
-        <v>1118.281519810759</v>
+        <v>1047.123534285387</v>
       </c>
       <c r="O2">
-        <v>11.58280295835997</v>
+        <v>8.86296678342093</v>
       </c>
       <c r="P2">
-        <v>115.1484412100929</v>
+        <v>123.3036765876303</v>
       </c>
       <c r="Q2">
-        <v>14.37434755326729</v>
+        <v>4.729586551463945</v>
       </c>
       <c r="R2">
-        <v>148.6889114422392</v>
+        <v>81.74028771607222</v>
       </c>
       <c r="S2">
         <v>662.831884314327</v>
@@ -529,19 +529,19 @@
         <v>1.9656</v>
       </c>
       <c r="N3">
-        <v>1326.04026787997</v>
+        <v>1242.406573856106</v>
       </c>
       <c r="O3">
-        <v>17.5639433024729</v>
+        <v>13.71306608195182</v>
       </c>
       <c r="P3">
-        <v>114.4964552147409</v>
+        <v>119.646819707634</v>
       </c>
       <c r="Q3">
-        <v>23.01048864629689</v>
+        <v>7.303788906853407</v>
       </c>
       <c r="R3">
-        <v>154.0917366428253</v>
+        <v>84.86525508603202</v>
       </c>
       <c r="S3">
         <v>809.7112126744066</v>
@@ -600,19 +600,19 @@
         <v>1.9656</v>
       </c>
       <c r="N4">
-        <v>1184.171437481489</v>
+        <v>1110.467505106302</v>
       </c>
       <c r="O4">
-        <v>12.48393519435321</v>
+        <v>9.610788478457838</v>
       </c>
       <c r="P4">
-        <v>114.9587829682583</v>
+        <v>122.3277578185581</v>
       </c>
       <c r="Q4">
-        <v>15.76960098900249</v>
+        <v>5.126807482602638</v>
       </c>
       <c r="R4">
-        <v>150.5918451815989</v>
+        <v>83.03487817840806</v>
       </c>
       <c r="S4">
         <v>706.130456334836</v>
@@ -671,19 +671,19 @@
         <v>2.2932</v>
       </c>
       <c r="N5">
-        <v>1076.988431677412</v>
+        <v>1008.556900158405</v>
       </c>
       <c r="O5">
-        <v>10.51499200036297</v>
+        <v>7.981948720320615</v>
       </c>
       <c r="P5">
-        <v>115.3995761922468</v>
+        <v>124.6042250516417</v>
       </c>
       <c r="Q5">
-        <v>12.87005680868513</v>
+        <v>4.261437216608779</v>
       </c>
       <c r="R5">
-        <v>147.8259512646684</v>
+        <v>81.331433758385</v>
       </c>
       <c r="S5">
         <v>625.4158395843252</v>
@@ -742,19 +742,19 @@
         <v>1.9404</v>
       </c>
       <c r="N6">
-        <v>1328.683167779132</v>
+        <v>1246.926034444787</v>
       </c>
       <c r="O6">
-        <v>16.43815252947669</v>
+        <v>12.77130220441214</v>
       </c>
       <c r="P6">
-        <v>114.6461725492491</v>
+        <v>120.404560954378</v>
       </c>
       <c r="Q6">
-        <v>21.48513073034709</v>
+        <v>6.804284818657683</v>
       </c>
       <c r="R6">
-        <v>154.6261846535874</v>
+        <v>85.45835915086772</v>
       </c>
       <c r="S6">
         <v>801.6919952517853</v>
@@ -813,19 +813,19 @@
         <v>1.9404</v>
       </c>
       <c r="N7">
-        <v>1209.623344619792</v>
+        <v>1135.537591456846</v>
       </c>
       <c r="O7">
-        <v>12.79271528677298</v>
+        <v>9.803832492200856</v>
       </c>
       <c r="P7">
-        <v>115.0836580862839</v>
+        <v>122.79059972073</v>
       </c>
       <c r="Q7">
-        <v>16.19128140025855</v>
+        <v>5.229325775877116</v>
       </c>
       <c r="R7">
-        <v>151.6974892284455</v>
+        <v>83.85563285000794</v>
       </c>
       <c r="S7">
         <v>714.7975175933379</v>
@@ -884,19 +884,19 @@
         <v>2.2932</v>
       </c>
       <c r="N8">
-        <v>1080.835753577878</v>
+        <v>1012.629960742157</v>
       </c>
       <c r="O8">
-        <v>10.27798544840526</v>
+        <v>7.812774018311536</v>
       </c>
       <c r="P8">
-        <v>115.3648618942083</v>
+        <v>124.5171446835647</v>
       </c>
       <c r="Q8">
-        <v>12.60405920814274</v>
+        <v>4.171518542196985</v>
       </c>
       <c r="R8">
-        <v>147.9462051799798</v>
+        <v>81.48588165094209</v>
       </c>
       <c r="S8">
         <v>622.8510570173337</v>
@@ -916,7 +916,7 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9">
-        <v>615</v>
+        <v>655</v>
       </c>
       <c r="B9">
         <v>0.25</v>
@@ -937,7 +937,7 @@
         <v>1.4</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I9">
         <v>43</v>
@@ -955,25 +955,25 @@
         <v>2.4696</v>
       </c>
       <c r="N9">
-        <v>1040.140733084023</v>
+        <v>972.1011863834876</v>
       </c>
       <c r="O9">
-        <v>9.432769770240743</v>
+        <v>6.377606208723277</v>
       </c>
       <c r="P9">
-        <v>115.4299237521967</v>
+        <v>84.96400351849476</v>
       </c>
       <c r="Q9">
-        <v>11.4588216701847</v>
+        <v>4.538586607084206</v>
       </c>
       <c r="R9">
-        <v>146.7248840505479</v>
+        <v>80.88644454748724</v>
       </c>
       <c r="S9">
-        <v>593.1515889477502</v>
+        <v>625.0999381213675</v>
       </c>
       <c r="T9">
-        <v>35.86092200147856</v>
+        <v>42.12727951101297</v>
       </c>
       <c r="U9">
         <v>188.5252309547193</v>
@@ -1026,19 +1026,19 @@
         <v>1.89</v>
       </c>
       <c r="N10">
-        <v>1371.911721542709</v>
+        <v>1288.571350938268</v>
       </c>
       <c r="O10">
-        <v>16.9667372531386</v>
+        <v>13.23682195265036</v>
       </c>
       <c r="P10">
-        <v>114.5237351435205</v>
+        <v>119.8320363823665</v>
       </c>
       <c r="Q10">
-        <v>22.43064178267799</v>
+        <v>7.051210719954603</v>
       </c>
       <c r="R10">
-        <v>155.8780479515481</v>
+        <v>86.33872247147349</v>
       </c>
       <c r="S10">
         <v>814.7701782470814</v>
@@ -1097,19 +1097,19 @@
         <v>1.89</v>
       </c>
       <c r="N11">
-        <v>1249.472582243194</v>
+        <v>1174.109897841268</v>
       </c>
       <c r="O11">
-        <v>13.29005922430202</v>
+        <v>10.19732333751526</v>
       </c>
       <c r="P11">
-        <v>115.0412682901003</v>
+        <v>122.5230609958223</v>
       </c>
       <c r="Q11">
-        <v>16.97024333020194</v>
+        <v>5.438268286609646</v>
       </c>
       <c r="R11">
-        <v>152.9853984495</v>
+        <v>84.76563227223104</v>
       </c>
       <c r="S11">
         <v>730.6874627906011</v>
@@ -1168,19 +1168,19 @@
         <v>2.079</v>
       </c>
       <c r="N12">
-        <v>1150.123006859721</v>
+        <v>1078.987605562432</v>
       </c>
       <c r="O12">
-        <v>11.34551316143384</v>
+        <v>8.682030828003299</v>
       </c>
       <c r="P12">
-        <v>115.150761200521</v>
+        <v>123.3648330690208</v>
       </c>
       <c r="Q12">
-        <v>14.17815006050584</v>
+        <v>4.633458383537538</v>
       </c>
       <c r="R12">
-        <v>149.899645110828</v>
+        <v>82.7583459554379</v>
       </c>
       <c r="S12">
         <v>663.82736178407</v>
@@ -1239,19 +1239,19 @@
         <v>2.268</v>
       </c>
       <c r="N13">
-        <v>1094.326680181062</v>
+        <v>1026.035802771126</v>
       </c>
       <c r="O13">
-        <v>10.28586351285945</v>
+        <v>7.812774018311536</v>
       </c>
       <c r="P13">
-        <v>115.3868660586825</v>
+        <v>124.60794053933</v>
       </c>
       <c r="Q13">
-        <v>12.64360472611663</v>
+        <v>4.171518542196985</v>
       </c>
       <c r="R13">
-        <v>148.4817639448611</v>
+        <v>81.91498773274562</v>
       </c>
       <c r="S13">
         <v>626.2874852293621</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14">
-        <v>615</v>
+        <v>655</v>
       </c>
       <c r="B14">
         <v>0.25</v>
@@ -1292,7 +1292,7 @@
         <v>1.4</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I14">
         <v>43</v>
@@ -1310,25 +1310,25 @@
         <v>2.457</v>
       </c>
       <c r="N14">
-        <v>1052.590699794654</v>
+        <v>985.5888151832055</v>
       </c>
       <c r="O14">
-        <v>9.488101834021727</v>
+        <v>6.377606208723277</v>
       </c>
       <c r="P14">
-        <v>115.5987010965503</v>
+        <v>85.19950415984916</v>
       </c>
       <c r="Q14">
-        <v>11.51036463646858</v>
+        <v>4.538586607084206</v>
       </c>
       <c r="R14">
-        <v>147.4871933167112</v>
+        <v>81.54030960830801</v>
       </c>
       <c r="S14">
-        <v>597.3023083557916</v>
+        <v>629.1099092368705</v>
       </c>
       <c r="T14">
-        <v>43.12220766348656</v>
+        <v>50.71557149305264</v>
       </c>
       <c r="U14">
         <v>175.9568822244047</v>
@@ -1342,7 +1342,7 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15">
-        <v>595</v>
+        <v>630</v>
       </c>
       <c r="B15">
         <v>0.25</v>
@@ -1363,7 +1363,7 @@
         <v>1.4</v>
       </c>
       <c r="H15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I15">
         <v>43</v>
@@ -1381,25 +1381,25 @@
         <v>2.646</v>
       </c>
       <c r="N15">
-        <v>1014.193917897624</v>
+        <v>943.9901023247666</v>
       </c>
       <c r="O15">
-        <v>8.663647883118065</v>
+        <v>5.734432301267599</v>
       </c>
       <c r="P15">
-        <v>115.6006221503769</v>
+        <v>85.27300964920502</v>
       </c>
       <c r="Q15">
-        <v>10.43201462577083</v>
+        <v>4.082819973039455</v>
       </c>
       <c r="R15">
-        <v>146.2321974444677</v>
+        <v>80.68238911469358</v>
       </c>
       <c r="S15">
-        <v>569.8709583697347</v>
+        <v>599.2683988205854</v>
       </c>
       <c r="T15">
-        <v>35.32311949962461</v>
+        <v>40.85843621399177</v>
       </c>
       <c r="U15">
         <v>188.5252309547193</v>
@@ -1452,19 +1452,19 @@
         <v>1.8144</v>
       </c>
       <c r="N16">
-        <v>1313.912010432831</v>
+        <v>1235.942372862823</v>
       </c>
       <c r="O16">
-        <v>14.27723211899653</v>
+        <v>11.0143009399579</v>
       </c>
       <c r="P16">
-        <v>114.8726618313427</v>
+        <v>121.6552421629633</v>
       </c>
       <c r="Q16">
-        <v>18.53417021537959</v>
+        <v>5.87197724685234</v>
       </c>
       <c r="R16">
-        <v>154.8486584239998</v>
+        <v>86.02156466993669</v>
       </c>
       <c r="S16">
         <v>756.5135884578195</v>
@@ -1484,7 +1484,7 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17">
-        <v>640</v>
+        <v>615</v>
       </c>
       <c r="B17">
         <v>0.25</v>
@@ -1499,7 +1499,7 @@
         <v>35</v>
       </c>
       <c r="F17">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G17">
         <v>1.4</v>
@@ -1511,51 +1511,51 @@
         <v>43</v>
       </c>
       <c r="J17">
-        <v>718.0229129229519</v>
+        <v>776.6179275787274</v>
       </c>
       <c r="K17">
-        <v>696.832512922952</v>
+        <v>753.5011275787274</v>
       </c>
       <c r="L17">
-        <v>18.9728</v>
+        <v>20.6976</v>
       </c>
       <c r="M17">
-        <v>2.2176</v>
+        <v>2.4192</v>
       </c>
       <c r="N17">
-        <v>1117.973294309191</v>
+        <v>999.8065177812388</v>
       </c>
       <c r="O17">
-        <v>10.5254481098813</v>
+        <v>7.15903938288276</v>
       </c>
       <c r="P17">
-        <v>115.4281573212517</v>
+        <v>125.5194450781968</v>
       </c>
       <c r="Q17">
-        <v>12.98754397654843</v>
+        <v>3.82397193841216</v>
       </c>
       <c r="R17">
-        <v>149.3830788613602</v>
+        <v>81.69093661919182</v>
       </c>
       <c r="S17">
-        <v>635.0199365520245</v>
+        <v>601.3497272787241</v>
       </c>
       <c r="T17">
-        <v>66.53215433255876</v>
+        <v>52.18157459220712</v>
       </c>
       <c r="U17">
-        <v>150.8201847637754</v>
+        <v>163.3885334940901</v>
       </c>
       <c r="V17">
-        <v>195.7162313095586</v>
+        <v>208.5120585426867</v>
       </c>
       <c r="W17">
-        <v>357.1689375913233</v>
+        <v>372.9521179019205</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="B18">
         <v>0.25</v>
@@ -1570,63 +1570,63 @@
         <v>35</v>
       </c>
       <c r="F18">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G18">
         <v>1.4</v>
       </c>
       <c r="H18">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I18">
         <v>43</v>
       </c>
       <c r="J18">
-        <v>776.6179275787274</v>
+        <v>838.4555585460051</v>
       </c>
       <c r="K18">
-        <v>753.5011275787274</v>
+        <v>813.4123585460052</v>
       </c>
       <c r="L18">
-        <v>20.6976</v>
+        <v>22.42240000000001</v>
       </c>
       <c r="M18">
-        <v>2.4192</v>
+        <v>2.6208</v>
       </c>
       <c r="N18">
-        <v>1066.074063303527</v>
+        <v>957.3658989853099</v>
       </c>
       <c r="O18">
-        <v>9.472406400696775</v>
+        <v>5.734432301267599</v>
       </c>
       <c r="P18">
-        <v>115.5508258977225</v>
+        <v>85.40711871778046</v>
       </c>
       <c r="Q18">
-        <v>11.5382401494113</v>
+        <v>4.082819973039455</v>
       </c>
       <c r="R18">
-        <v>147.8994660931414</v>
+        <v>81.22778437680618</v>
       </c>
       <c r="S18">
-        <v>601.3497272787241</v>
+        <v>603.888324562507</v>
       </c>
       <c r="T18">
-        <v>52.18157459220712</v>
+        <v>48.93480280192531</v>
       </c>
       <c r="U18">
-        <v>163.3885334940901</v>
+        <v>175.9568822244047</v>
       </c>
       <c r="V18">
-        <v>208.5120585426867</v>
+        <v>221.310064409394</v>
       </c>
       <c r="W18">
-        <v>372.9521179019205</v>
+        <v>388.9404169308372</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="B19">
         <v>0.25</v>
@@ -1641,63 +1641,63 @@
         <v>35</v>
       </c>
       <c r="F19">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G19">
         <v>1.4</v>
       </c>
       <c r="H19">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I19">
         <v>43</v>
       </c>
       <c r="J19">
-        <v>838.4555585460051</v>
+        <v>903.4369456312623</v>
       </c>
       <c r="K19">
-        <v>813.4123585460052</v>
+        <v>876.4673456312623</v>
       </c>
       <c r="L19">
-        <v>22.42240000000001</v>
+        <v>24.14720000000001</v>
       </c>
       <c r="M19">
-        <v>2.6208</v>
+        <v>2.8224</v>
       </c>
       <c r="N19">
-        <v>1026.707507592555</v>
+        <v>925.4550951429043</v>
       </c>
       <c r="O19">
-        <v>8.692476108799037</v>
+        <v>5.250957491853518</v>
       </c>
       <c r="P19">
-        <v>115.6969301947991</v>
+        <v>85.74307164692217</v>
       </c>
       <c r="Q19">
-        <v>10.47137038660948</v>
+        <v>3.7400807747653</v>
       </c>
       <c r="R19">
-        <v>146.8696934589316</v>
+        <v>80.8861016324616</v>
       </c>
       <c r="S19">
-        <v>574.6445495708563</v>
+        <v>581.6152271181063</v>
       </c>
       <c r="T19">
-        <v>42.26112994802821</v>
+        <v>40.14057885490642</v>
       </c>
       <c r="U19">
-        <v>175.9568822244047</v>
+        <v>188.5252309547193</v>
       </c>
       <c r="V19">
-        <v>221.310064409394</v>
+        <v>234.1098899427571</v>
       </c>
       <c r="W19">
-        <v>388.9404169308372</v>
+        <v>405.0890709598764</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20">
-        <v>580</v>
+        <v>610</v>
       </c>
       <c r="B20">
         <v>0.25</v>
@@ -1706,69 +1706,69 @@
         <v>1.5</v>
       </c>
       <c r="D20">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E20">
         <v>35</v>
       </c>
       <c r="F20">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G20">
         <v>1.4</v>
       </c>
       <c r="H20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I20">
         <v>43</v>
       </c>
       <c r="J20">
-        <v>903.4369456312623</v>
+        <v>890.8590309551305</v>
       </c>
       <c r="K20">
-        <v>876.4673456312623</v>
+        <v>864.2506309551305</v>
       </c>
       <c r="L20">
-        <v>24.14720000000001</v>
+        <v>23.82380000000001</v>
       </c>
       <c r="M20">
-        <v>2.8224</v>
+        <v>2.7846</v>
       </c>
       <c r="N20">
-        <v>992.5978779414029</v>
+        <v>936.0709899763563</v>
       </c>
       <c r="O20">
-        <v>8.119215292721268</v>
+        <v>5.250957491853518</v>
       </c>
       <c r="P20">
-        <v>115.7555795558912</v>
+        <v>85.65809733706895</v>
       </c>
       <c r="Q20">
-        <v>9.701256207205089</v>
+        <v>3.7400807747653</v>
       </c>
       <c r="R20">
-        <v>145.8301490711748</v>
+        <v>81.11306463986861</v>
       </c>
       <c r="S20">
-        <v>549.8123167950919</v>
+        <v>584.3706664929977</v>
       </c>
       <c r="T20">
-        <v>35.31500564390466</v>
+        <v>47.85904561591322</v>
       </c>
       <c r="U20">
-        <v>188.5252309547193</v>
+        <v>175.9568822244047</v>
       </c>
       <c r="V20">
-        <v>234.1098899427571</v>
+        <v>221.310064409394</v>
       </c>
       <c r="W20">
-        <v>405.0890709598764</v>
+        <v>388.9404169308372</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="B21">
         <v>0.25</v>
@@ -1783,63 +1783,63 @@
         <v>35</v>
       </c>
       <c r="F21">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G21">
         <v>1.4</v>
       </c>
       <c r="H21">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I21">
         <v>43</v>
       </c>
       <c r="J21">
-        <v>825.1565480523977</v>
+        <v>959.9017547332163</v>
       </c>
       <c r="K21">
-        <v>800.5949480523979</v>
+        <v>931.2465547332164</v>
       </c>
       <c r="L21">
-        <v>21.99120000000001</v>
+        <v>25.6564</v>
       </c>
       <c r="M21">
-        <v>2.5704</v>
+        <v>2.9988</v>
       </c>
       <c r="N21">
-        <v>1039.977633224067</v>
+        <v>907.4972646697432</v>
       </c>
       <c r="O21">
-        <v>8.660235640757714</v>
+        <v>5.019343401458325</v>
       </c>
       <c r="P21">
-        <v>115.5892226840187</v>
+        <v>85.9999381230141</v>
       </c>
       <c r="Q21">
-        <v>10.4898093014071</v>
+        <v>3.575841720388653</v>
       </c>
       <c r="R21">
-        <v>147.1683723421251</v>
+        <v>80.75171547698625</v>
       </c>
       <c r="S21">
-        <v>579.0917880089885</v>
+        <v>563.1834042857985</v>
       </c>
       <c r="T21">
-        <v>50.90684732223854</v>
+        <v>40.89317371297159</v>
       </c>
       <c r="U21">
-        <v>163.3885334940901</v>
+        <v>188.5252309547193</v>
       </c>
       <c r="V21">
-        <v>208.5120585426867</v>
+        <v>234.1098899427571</v>
       </c>
       <c r="W21">
-        <v>372.9521179019205</v>
+        <v>405.0890709598764</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="B22">
         <v>0.25</v>
@@ -1848,7 +1848,7 @@
         <v>1.5</v>
       </c>
       <c r="D22">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E22">
         <v>35</v>
@@ -1860,43 +1860,43 @@
         <v>1.4</v>
       </c>
       <c r="H22">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I22">
         <v>43</v>
       </c>
       <c r="J22">
-        <v>890.8590309551305</v>
+        <v>943.2625033642558</v>
       </c>
       <c r="K22">
-        <v>864.2506309551305</v>
+        <v>915.0889033642558</v>
       </c>
       <c r="L22">
-        <v>23.82380000000001</v>
+        <v>25.2252</v>
       </c>
       <c r="M22">
-        <v>2.7846</v>
+        <v>2.9484</v>
       </c>
       <c r="N22">
-        <v>1010.264125341172</v>
+        <v>916.8625093788762</v>
       </c>
       <c r="O22">
-        <v>8.408618982631918</v>
+        <v>5.019343401458325</v>
       </c>
       <c r="P22">
-        <v>115.9653667621333</v>
+        <v>85.81428750227207</v>
       </c>
       <c r="Q22">
-        <v>9.998157738313738</v>
+        <v>3.575841720388653</v>
       </c>
       <c r="R22">
-        <v>146.935087595838</v>
+        <v>80.83201615393055</v>
       </c>
       <c r="S22">
-        <v>557.8916400777217</v>
+        <v>564.9742335792365</v>
       </c>
       <c r="T22">
-        <v>42.99864001567706</v>
+        <v>48.57293907246423</v>
       </c>
       <c r="U22">
         <v>175.9568822244047</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="B23">
         <v>0.25</v>
@@ -1919,7 +1919,7 @@
         <v>1.5</v>
       </c>
       <c r="D23">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E23">
         <v>35</v>
@@ -1931,43 +1931,43 @@
         <v>1.4</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I23">
         <v>43</v>
       </c>
       <c r="J23">
-        <v>959.9017547332163</v>
+        <v>1016.36656383517</v>
       </c>
       <c r="K23">
-        <v>931.2465547332164</v>
+        <v>986.0257638351703</v>
       </c>
       <c r="L23">
-        <v>25.6564</v>
+        <v>27.1656</v>
       </c>
       <c r="M23">
-        <v>2.9988</v>
+        <v>3.1752</v>
       </c>
       <c r="N23">
-        <v>979.2179445719321</v>
+        <v>888.5572727655237</v>
       </c>
       <c r="O23">
-        <v>8.073321600951232</v>
+        <v>4.794365413215841</v>
       </c>
       <c r="P23">
-        <v>115.9429690325052</v>
+        <v>86.10149683709504</v>
       </c>
       <c r="Q23">
-        <v>9.48357340843808</v>
+        <v>3.416277984914116</v>
       </c>
       <c r="R23">
-        <v>146.0192718451063</v>
+        <v>80.41655259791618</v>
       </c>
       <c r="S23">
-        <v>534.9281814827827</v>
+        <v>544.2703506010268</v>
       </c>
       <c r="T23">
-        <v>36.70845846275825</v>
+        <v>41.48928180860024</v>
       </c>
       <c r="U23">
         <v>188.5252309547193</v>
@@ -1976,148 +1976,6 @@
         <v>234.1098899427571</v>
       </c>
       <c r="W23">
-        <v>405.0890709598764</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23">
-      <c r="A24">
-        <v>575</v>
-      </c>
-      <c r="B24">
-        <v>0.25</v>
-      </c>
-      <c r="C24">
-        <v>1.5</v>
-      </c>
-      <c r="D24">
-        <v>180</v>
-      </c>
-      <c r="E24">
-        <v>35</v>
-      </c>
-      <c r="F24">
-        <v>65</v>
-      </c>
-      <c r="G24">
-        <v>1.4</v>
-      </c>
-      <c r="H24">
-        <v>14</v>
-      </c>
-      <c r="I24">
-        <v>43</v>
-      </c>
-      <c r="J24">
-        <v>943.2625033642558</v>
-      </c>
-      <c r="K24">
-        <v>915.0889033642558</v>
-      </c>
-      <c r="L24">
-        <v>25.2252</v>
-      </c>
-      <c r="M24">
-        <v>2.9484</v>
-      </c>
-      <c r="N24">
-        <v>988.8381821350622</v>
-      </c>
-      <c r="O24">
-        <v>7.992000086176287</v>
-      </c>
-      <c r="P24">
-        <v>115.9765770434272</v>
-      </c>
-      <c r="Q24">
-        <v>9.490450458470239</v>
-      </c>
-      <c r="R24">
-        <v>146.1416545199039</v>
-      </c>
-      <c r="S24">
-        <v>537.6070736575678</v>
-      </c>
-      <c r="T24">
-        <v>43.56825763012671</v>
-      </c>
-      <c r="U24">
-        <v>175.9568822244047</v>
-      </c>
-      <c r="V24">
-        <v>221.310064409394</v>
-      </c>
-      <c r="W24">
-        <v>388.9404169308372</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23">
-      <c r="A25">
-        <v>565</v>
-      </c>
-      <c r="B25">
-        <v>0.25</v>
-      </c>
-      <c r="C25">
-        <v>1.5</v>
-      </c>
-      <c r="D25">
-        <v>180</v>
-      </c>
-      <c r="E25">
-        <v>35</v>
-      </c>
-      <c r="F25">
-        <v>70</v>
-      </c>
-      <c r="G25">
-        <v>1.4</v>
-      </c>
-      <c r="H25">
-        <v>14</v>
-      </c>
-      <c r="I25">
-        <v>43</v>
-      </c>
-      <c r="J25">
-        <v>1016.36656383517</v>
-      </c>
-      <c r="K25">
-        <v>986.0257638351703</v>
-      </c>
-      <c r="L25">
-        <v>27.1656</v>
-      </c>
-      <c r="M25">
-        <v>3.1752</v>
-      </c>
-      <c r="N25">
-        <v>952.9709234816914</v>
-      </c>
-      <c r="O25">
-        <v>7.662699854586854</v>
-      </c>
-      <c r="P25">
-        <v>115.956110313299</v>
-      </c>
-      <c r="Q25">
-        <v>8.983786722181641</v>
-      </c>
-      <c r="R25">
-        <v>145.0289008084877</v>
-      </c>
-      <c r="S25">
-        <v>510.1005575770191</v>
-      </c>
-      <c r="T25">
-        <v>37.1808654748216</v>
-      </c>
-      <c r="U25">
-        <v>188.5252309547193</v>
-      </c>
-      <c r="V25">
-        <v>234.1098899427571</v>
-      </c>
-      <c r="W25">
         <v>405.0890709598764</v>
       </c>
     </row>

--- a/Codemig/System/Optimization_results_1Hz.xlsx
+++ b/Codemig/System/Optimization_results_1Hz.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,22 +348,22 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1">
-        <v>695</v>
+        <v>745</v>
       </c>
       <c r="B1">
         <v>0.25</v>
       </c>
       <c r="C1">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D1">
         <v>120</v>
       </c>
       <c r="E1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F1">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G1">
         <v>1.4</v>
@@ -375,66 +375,66 @@
         <v>43</v>
       </c>
       <c r="J1">
-        <v>628.8416689095038</v>
+        <v>533.4973622897161</v>
       </c>
       <c r="K1">
-        <v>610.0592689095039</v>
+        <v>518.636562289716</v>
       </c>
       <c r="L1">
-        <v>16.8168</v>
+        <v>13.3056</v>
       </c>
       <c r="M1">
-        <v>1.9656</v>
+        <v>1.5552</v>
       </c>
       <c r="N1">
-        <v>1110.796059715966</v>
+        <v>900.8919020905455</v>
       </c>
       <c r="O1">
-        <v>9.999339525352426</v>
+        <v>12.2516752790553</v>
       </c>
       <c r="P1">
-        <v>122.242840211201</v>
+        <v>119.0744633303131</v>
       </c>
       <c r="Q1">
-        <v>5.333143655957953</v>
+        <v>6.294022066784244</v>
       </c>
       <c r="R1">
-        <v>82.89836488045096</v>
+        <v>76.13708693332531</v>
       </c>
       <c r="S1">
-        <v>714.8800673197269</v>
+        <v>475.7146297030386</v>
       </c>
       <c r="T1">
-        <v>47.30182795295477</v>
+        <v>83.22366225908355</v>
       </c>
       <c r="U1">
-        <v>175.9568822244047</v>
+        <v>163.3885334940901</v>
       </c>
       <c r="V1">
-        <v>221.310064409394</v>
+        <v>203.5653514618992</v>
       </c>
       <c r="W1">
-        <v>388.9404169308372</v>
+        <v>354.7697600713945</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2">
-        <v>665</v>
+        <v>685</v>
       </c>
       <c r="B2">
         <v>0.25</v>
       </c>
       <c r="C2">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D2">
         <v>120</v>
       </c>
       <c r="E2">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G2">
         <v>1.4</v>
@@ -446,69 +446,69 @@
         <v>43</v>
       </c>
       <c r="J2">
-        <v>677.5777092234468</v>
+        <v>578.9346428019758</v>
       </c>
       <c r="K2">
-        <v>657.3505092234468</v>
+        <v>562.8354428019758</v>
       </c>
       <c r="L2">
-        <v>18.1104</v>
+        <v>14.4144</v>
       </c>
       <c r="M2">
-        <v>2.1168</v>
+        <v>1.6848</v>
       </c>
       <c r="N2">
-        <v>1047.123534285387</v>
+        <v>841.0669148909491</v>
       </c>
       <c r="O2">
-        <v>8.86296678342093</v>
+        <v>9.820578820271257</v>
       </c>
       <c r="P2">
-        <v>123.3036765876303</v>
+        <v>120.0968112111324</v>
       </c>
       <c r="Q2">
-        <v>4.729586551463945</v>
+        <v>4.972092579608446</v>
       </c>
       <c r="R2">
-        <v>81.74028771607222</v>
+        <v>75.72108080624005</v>
       </c>
       <c r="S2">
-        <v>662.831884314327</v>
+        <v>443.9271114876207</v>
       </c>
       <c r="T2">
-        <v>37.54031555713617</v>
+        <v>58.3978859379489</v>
       </c>
       <c r="U2">
-        <v>188.5252309547193</v>
+        <v>175.9568822244047</v>
       </c>
       <c r="V2">
-        <v>234.1098899427571</v>
+        <v>216.3655185284948</v>
       </c>
       <c r="W2">
-        <v>405.0890709598764</v>
+        <v>371.069425780521</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3">
-        <v>780</v>
+        <v>640</v>
       </c>
       <c r="B3">
         <v>0.25</v>
       </c>
       <c r="C3">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G3">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="H3">
         <v>14</v>
@@ -517,66 +517,66 @@
         <v>43</v>
       </c>
       <c r="J3">
-        <v>598.7256878311966</v>
+        <v>626.6554499656866</v>
       </c>
       <c r="K3">
-        <v>579.9432878311967</v>
+        <v>609.3178499656866</v>
       </c>
       <c r="L3">
-        <v>16.8168</v>
+        <v>15.5232</v>
       </c>
       <c r="M3">
-        <v>1.9656</v>
+        <v>1.8144</v>
       </c>
       <c r="N3">
-        <v>1242.406573856106</v>
+        <v>800.2297087799697</v>
       </c>
       <c r="O3">
-        <v>13.71306608195182</v>
+        <v>8.202059952816448</v>
       </c>
       <c r="P3">
-        <v>119.646819707634</v>
+        <v>120.7723218632802</v>
       </c>
       <c r="Q3">
-        <v>7.303788906853407</v>
+        <v>4.115315553875539</v>
       </c>
       <c r="R3">
-        <v>84.86525508603202</v>
+        <v>75.4712802063096</v>
       </c>
       <c r="S3">
-        <v>809.7112126744066</v>
+        <v>420.1798055838811</v>
       </c>
       <c r="T3">
-        <v>78.91822136417777</v>
+        <v>43.39195046424093</v>
       </c>
       <c r="U3">
-        <v>163.3885334940901</v>
+        <v>188.5252309547193</v>
       </c>
       <c r="V3">
-        <v>208.5120585426867</v>
+        <v>229.1673023043769</v>
       </c>
       <c r="W3">
-        <v>363.0183845655141</v>
+        <v>387.4888777149488</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4">
-        <v>685</v>
+        <v>775</v>
       </c>
       <c r="B4">
         <v>0.25</v>
       </c>
       <c r="C4">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E4">
         <v>35</v>
       </c>
       <c r="F4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G4">
         <v>1.4</v>
@@ -588,69 +588,69 @@
         <v>43</v>
       </c>
       <c r="J4">
-        <v>631.0020661577161</v>
+        <v>497.1039990603986</v>
       </c>
       <c r="K4">
-        <v>612.219666157716</v>
+        <v>482.6559990603987</v>
       </c>
       <c r="L4">
-        <v>16.8168</v>
+        <v>12.936</v>
       </c>
       <c r="M4">
-        <v>1.9656</v>
+        <v>1.512</v>
       </c>
       <c r="N4">
-        <v>1110.467505106302</v>
+        <v>934.5272716038648</v>
       </c>
       <c r="O4">
-        <v>9.610788478457838</v>
+        <v>13.63082880348366</v>
       </c>
       <c r="P4">
-        <v>122.3277578185581</v>
+        <v>118.9028128178458</v>
       </c>
       <c r="Q4">
-        <v>5.126807482602638</v>
+        <v>7.067302314921142</v>
       </c>
       <c r="R4">
-        <v>83.03487817840806</v>
+        <v>76.6276463095484</v>
       </c>
       <c r="S4">
-        <v>706.130456334836</v>
+        <v>493.1026792245968</v>
       </c>
       <c r="T4">
-        <v>56.10546276531226</v>
+        <v>96.95596748140568</v>
       </c>
       <c r="U4">
-        <v>163.3885334940901</v>
+        <v>138.2518360334608</v>
       </c>
       <c r="V4">
-        <v>208.5120585426867</v>
+        <v>182.9230428267877</v>
       </c>
       <c r="W4">
-        <v>372.9521179019205</v>
+        <v>341.6523694112996</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5">
-        <v>640</v>
+        <v>785</v>
       </c>
       <c r="B5">
         <v>0.25</v>
       </c>
       <c r="C5">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E5">
         <v>35</v>
       </c>
       <c r="F5">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="G5">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -659,60 +659,60 @@
         <v>43</v>
       </c>
       <c r="J5">
-        <v>734.0425183254007</v>
+        <v>511.0735640951793</v>
       </c>
       <c r="K5">
-        <v>712.1297183254007</v>
+        <v>495.1807640951793</v>
       </c>
       <c r="L5">
-        <v>19.6196</v>
+        <v>14.2296</v>
       </c>
       <c r="M5">
-        <v>2.2932</v>
+        <v>1.6632</v>
       </c>
       <c r="N5">
-        <v>1008.556900158405</v>
+        <v>931.3590146252856</v>
       </c>
       <c r="O5">
-        <v>7.981948720320615</v>
+        <v>14.07287063710417</v>
       </c>
       <c r="P5">
-        <v>124.6042250516417</v>
+        <v>118.5219221899885</v>
       </c>
       <c r="Q5">
-        <v>4.261437216608779</v>
+        <v>7.275257542338059</v>
       </c>
       <c r="R5">
-        <v>81.331433758385</v>
+        <v>76.27145792942842</v>
       </c>
       <c r="S5">
-        <v>625.4158395843252</v>
+        <v>501.4088361679544</v>
       </c>
       <c r="T5">
-        <v>36.86504067155815</v>
+        <v>85.55200366208445</v>
       </c>
       <c r="U5">
-        <v>188.5252309547193</v>
+        <v>150.8201847637754</v>
       </c>
       <c r="V5">
-        <v>234.1098899427571</v>
+        <v>195.7162313095586</v>
       </c>
       <c r="W5">
-        <v>405.0890709598764</v>
+        <v>347.6555957659984</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6">
-        <v>760</v>
+        <v>695</v>
       </c>
       <c r="B6">
         <v>0.25</v>
       </c>
       <c r="C6">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E6">
         <v>35</v>
@@ -721,7 +721,7 @@
         <v>55</v>
       </c>
       <c r="G6">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="H6">
         <v>14</v>
@@ -730,37 +730,37 @@
         <v>43</v>
       </c>
       <c r="J6">
-        <v>596.2524914443759</v>
+        <v>538.517184692214</v>
       </c>
       <c r="K6">
-        <v>577.710891444376</v>
+        <v>522.624384692214</v>
       </c>
       <c r="L6">
-        <v>16.6012</v>
+        <v>14.2296</v>
       </c>
       <c r="M6">
-        <v>1.9404</v>
+        <v>1.6632</v>
       </c>
       <c r="N6">
-        <v>1246.926034444787</v>
+        <v>849.3084983685865</v>
       </c>
       <c r="O6">
-        <v>12.77130220441214</v>
+        <v>10.21584978350886</v>
       </c>
       <c r="P6">
-        <v>120.404560954378</v>
+        <v>120.0761052945669</v>
       </c>
       <c r="Q6">
-        <v>6.804284818657683</v>
+        <v>5.181833525752957</v>
       </c>
       <c r="R6">
-        <v>85.45835915086772</v>
+        <v>75.83080118192971</v>
       </c>
       <c r="S6">
-        <v>801.6919952517853</v>
+        <v>447.9031710608469</v>
       </c>
       <c r="T6">
-        <v>91.57843296382342</v>
+        <v>61.96026135165901</v>
       </c>
       <c r="U6">
         <v>150.8201847637754</v>
@@ -769,27 +769,27 @@
         <v>195.7162313095586</v>
       </c>
       <c r="W6">
-        <v>347.6555957659984</v>
+        <v>357.1689375913233</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7">
-        <v>690</v>
+        <v>640</v>
       </c>
       <c r="B7">
         <v>0.25</v>
       </c>
       <c r="C7">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E7">
         <v>35</v>
       </c>
       <c r="F7">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G7">
         <v>1.4</v>
@@ -801,60 +801,60 @@
         <v>43</v>
       </c>
       <c r="J7">
-        <v>628.270048807583</v>
+        <v>582.4634456840455</v>
       </c>
       <c r="K7">
-        <v>609.728448807583</v>
+        <v>565.1258456840455</v>
       </c>
       <c r="L7">
-        <v>16.6012</v>
+        <v>15.5232</v>
       </c>
       <c r="M7">
-        <v>1.9404</v>
+        <v>1.8144</v>
       </c>
       <c r="N7">
-        <v>1135.537591456846</v>
+        <v>800.2297087799697</v>
       </c>
       <c r="O7">
-        <v>9.803832492200856</v>
+        <v>8.202059952816448</v>
       </c>
       <c r="P7">
-        <v>122.79059972073</v>
+        <v>120.7723218632802</v>
       </c>
       <c r="Q7">
-        <v>5.229325775877116</v>
+        <v>4.115315553875539</v>
       </c>
       <c r="R7">
-        <v>83.85563285000794</v>
+        <v>75.4712802063096</v>
       </c>
       <c r="S7">
-        <v>714.7975175933379</v>
+        <v>420.1798055838811</v>
       </c>
       <c r="T7">
-        <v>70.92484312720256</v>
+        <v>43.39195046424093</v>
       </c>
       <c r="U7">
-        <v>150.8201847637754</v>
+        <v>163.3885334940901</v>
       </c>
       <c r="V7">
-        <v>195.7162313095586</v>
+        <v>208.5120585426867</v>
       </c>
       <c r="W7">
-        <v>357.1689375913233</v>
+        <v>372.9521179019205</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="B8">
         <v>0.25</v>
       </c>
       <c r="C8">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E8">
         <v>35</v>
@@ -872,37 +872,37 @@
         <v>43</v>
       </c>
       <c r="J8">
-        <v>733.6486137277545</v>
+        <v>628.8416689095038</v>
       </c>
       <c r="K8">
-        <v>711.7358137277546</v>
+        <v>610.0592689095039</v>
       </c>
       <c r="L8">
-        <v>19.6196</v>
+        <v>16.8168</v>
       </c>
       <c r="M8">
-        <v>2.2932</v>
+        <v>1.9656</v>
       </c>
       <c r="N8">
-        <v>1012.629960742157</v>
+        <v>761.268285171712</v>
       </c>
       <c r="O8">
-        <v>7.812774018311536</v>
+        <v>7.735169175370244</v>
       </c>
       <c r="P8">
-        <v>124.5171446835647</v>
+        <v>121.5188706823724</v>
       </c>
       <c r="Q8">
-        <v>4.171518542196985</v>
+        <v>3.831524898148803</v>
       </c>
       <c r="R8">
-        <v>81.48588165094209</v>
+        <v>75.06356717835362</v>
       </c>
       <c r="S8">
-        <v>622.8510570173337</v>
+        <v>389.0747378212216</v>
       </c>
       <c r="T8">
-        <v>43.69784102303787</v>
+        <v>35.95682632942432</v>
       </c>
       <c r="U8">
         <v>175.9568822244047</v>
@@ -916,16 +916,16 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9">
-        <v>655</v>
+        <v>610</v>
       </c>
       <c r="B9">
         <v>0.25</v>
       </c>
       <c r="C9">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E9">
         <v>35</v>
@@ -937,43 +937,43 @@
         <v>1.4</v>
       </c>
       <c r="H9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I9">
         <v>43</v>
       </c>
       <c r="J9">
-        <v>790.5073274273547</v>
+        <v>677.5777092234468</v>
       </c>
       <c r="K9">
-        <v>766.9089274273546</v>
+        <v>657.3505092234468</v>
       </c>
       <c r="L9">
-        <v>21.12880000000001</v>
+        <v>18.1104</v>
       </c>
       <c r="M9">
-        <v>2.4696</v>
+        <v>2.1168</v>
       </c>
       <c r="N9">
-        <v>972.1011863834876</v>
+        <v>720.0848115796387</v>
       </c>
       <c r="O9">
-        <v>6.377606208723277</v>
+        <v>7.245760876949888</v>
       </c>
       <c r="P9">
-        <v>84.96400351849476</v>
+        <v>121.6354504944303</v>
       </c>
       <c r="Q9">
-        <v>4.538586607084206</v>
+        <v>3.536400366390436</v>
       </c>
       <c r="R9">
-        <v>80.88644454748724</v>
+        <v>74.24589655371611</v>
       </c>
       <c r="S9">
-        <v>625.0999381213675</v>
+        <v>355.2367915230831</v>
       </c>
       <c r="T9">
-        <v>42.12727951101297</v>
+        <v>30.10543414117982</v>
       </c>
       <c r="U9">
         <v>188.5252309547193</v>
@@ -987,25 +987,25 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10">
-        <v>770</v>
+        <v>735</v>
       </c>
       <c r="B10">
         <v>0.25</v>
       </c>
       <c r="C10">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="E10">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F10">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G10">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="H10">
         <v>14</v>
@@ -1014,66 +1014,66 @@
         <v>43</v>
       </c>
       <c r="J10">
-        <v>589.8460156712292</v>
+        <v>531.2632916418016</v>
       </c>
       <c r="K10">
-        <v>571.7860156712293</v>
+        <v>516.5056916418016</v>
       </c>
       <c r="L10">
-        <v>16.17</v>
+        <v>13.2132</v>
       </c>
       <c r="M10">
-        <v>1.89</v>
+        <v>1.5444</v>
       </c>
       <c r="N10">
-        <v>1288.571350938268</v>
+        <v>923.114340560589</v>
       </c>
       <c r="O10">
-        <v>13.23682195265036</v>
+        <v>11.84891889724605</v>
       </c>
       <c r="P10">
-        <v>119.8320363823665</v>
+        <v>119.499987377844</v>
       </c>
       <c r="Q10">
-        <v>7.051210719954603</v>
+        <v>6.152398795842917</v>
       </c>
       <c r="R10">
-        <v>86.33872247147349</v>
+        <v>76.9780865804677</v>
       </c>
       <c r="S10">
-        <v>814.7701782470814</v>
+        <v>479.852161166503</v>
       </c>
       <c r="T10">
-        <v>119.1102505828492</v>
+        <v>100.5991371367488</v>
       </c>
       <c r="U10">
-        <v>138.2518360334608</v>
+        <v>150.8201847637754</v>
       </c>
       <c r="V10">
-        <v>182.9230428267877</v>
+        <v>190.7671283532061</v>
       </c>
       <c r="W10">
-        <v>332.5523177731002</v>
+        <v>338.6244940917047</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11">
-        <v>700</v>
+        <v>780</v>
       </c>
       <c r="B11">
         <v>0.25</v>
       </c>
       <c r="C11">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="E11">
         <v>35</v>
       </c>
       <c r="F11">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G11">
         <v>1.4</v>
@@ -1085,66 +1085,66 @@
         <v>43</v>
       </c>
       <c r="J11">
-        <v>621.3799988254984</v>
+        <v>496.5634212036323</v>
       </c>
       <c r="K11">
-        <v>603.3199988254984</v>
+        <v>482.4766212036324</v>
       </c>
       <c r="L11">
-        <v>16.17</v>
+        <v>12.6126</v>
       </c>
       <c r="M11">
-        <v>1.89</v>
+        <v>1.4742</v>
       </c>
       <c r="N11">
-        <v>1174.109897841268</v>
+        <v>976.1441782758554</v>
       </c>
       <c r="O11">
-        <v>10.19732333751526</v>
+        <v>13.84936428470069</v>
       </c>
       <c r="P11">
-        <v>122.5230609958223</v>
+        <v>118.6994426241296</v>
       </c>
       <c r="Q11">
-        <v>5.438268286609646</v>
+        <v>7.293256747614632</v>
       </c>
       <c r="R11">
-        <v>84.76563227223104</v>
+        <v>77.46688985793337</v>
       </c>
       <c r="S11">
-        <v>730.6874627906011</v>
+        <v>502.8420276297993</v>
       </c>
       <c r="T11">
-        <v>92.35288206969354</v>
+        <v>127.744987096628</v>
       </c>
       <c r="U11">
-        <v>138.2518360334608</v>
+        <v>125.6834873031462</v>
       </c>
       <c r="V11">
-        <v>182.9230428267877</v>
+        <v>170.1330927506484</v>
       </c>
       <c r="W11">
-        <v>341.6523694112996</v>
+        <v>326.4891241276557</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12">
-        <v>660</v>
+        <v>595</v>
       </c>
       <c r="B12">
         <v>0.25</v>
       </c>
       <c r="C12">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="E12">
         <v>35</v>
       </c>
       <c r="F12">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G12">
         <v>1.4</v>
@@ -1156,66 +1156,66 @@
         <v>43</v>
       </c>
       <c r="J12">
-        <v>673.1464808652674</v>
+        <v>734.0425183254007</v>
       </c>
       <c r="K12">
-        <v>653.2804808652677</v>
+        <v>712.1297183254007</v>
       </c>
       <c r="L12">
-        <v>17.787</v>
+        <v>19.6196</v>
       </c>
       <c r="M12">
-        <v>2.079</v>
+        <v>2.2932</v>
       </c>
       <c r="N12">
-        <v>1078.987605562432</v>
+        <v>690.0049393926362</v>
       </c>
       <c r="O12">
-        <v>8.682030828003299</v>
+        <v>6.816214988569036</v>
       </c>
       <c r="P12">
-        <v>123.3648330690208</v>
+        <v>122.4694411765084</v>
       </c>
       <c r="Q12">
-        <v>4.633458383537538</v>
+        <v>3.296873234290011</v>
       </c>
       <c r="R12">
-        <v>82.7583459554379</v>
+        <v>74.10257111861769</v>
       </c>
       <c r="S12">
-        <v>663.82736178407</v>
+        <v>324.6351107171113</v>
       </c>
       <c r="T12">
-        <v>67.61056459163456</v>
+        <v>30.61337023300799</v>
       </c>
       <c r="U12">
-        <v>150.8201847637754</v>
+        <v>188.5252309547193</v>
       </c>
       <c r="V12">
-        <v>195.7162313095586</v>
+        <v>234.1098899427571</v>
       </c>
       <c r="W12">
-        <v>357.1689375913233</v>
+        <v>405.0890709598764</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="B13">
         <v>0.25</v>
       </c>
       <c r="C13">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E13">
         <v>35</v>
       </c>
       <c r="F13">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G13">
         <v>1.4</v>
@@ -1227,208 +1227,208 @@
         <v>43</v>
       </c>
       <c r="J13">
-        <v>728.079307105057</v>
+        <v>579.9546655704651</v>
       </c>
       <c r="K13">
-        <v>706.4073071050569</v>
+        <v>563.0986655704651</v>
       </c>
       <c r="L13">
-        <v>19.404</v>
+        <v>15.092</v>
       </c>
       <c r="M13">
-        <v>2.268</v>
+        <v>1.764</v>
       </c>
       <c r="N13">
-        <v>1026.035802771126</v>
+        <v>838.7457238125603</v>
       </c>
       <c r="O13">
-        <v>7.812774018311536</v>
+        <v>8.205347152513905</v>
       </c>
       <c r="P13">
-        <v>124.60794053933</v>
+        <v>120.820724672108</v>
       </c>
       <c r="Q13">
-        <v>4.171518542196985</v>
+        <v>4.183144440419003</v>
       </c>
       <c r="R13">
-        <v>81.91498773274562</v>
+        <v>76.43829874122298</v>
       </c>
       <c r="S13">
-        <v>626.2874852293621</v>
+        <v>433.0178736314623</v>
       </c>
       <c r="T13">
-        <v>53.14735290240972</v>
+        <v>67.98336001926836</v>
       </c>
       <c r="U13">
-        <v>163.3885334940901</v>
+        <v>138.2518360334608</v>
       </c>
       <c r="V13">
-        <v>208.5120585426867</v>
+        <v>182.9230428267877</v>
       </c>
       <c r="W13">
-        <v>372.9521179019205</v>
+        <v>341.6523694112996</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14">
-        <v>655</v>
+        <v>620</v>
       </c>
       <c r="B14">
         <v>0.25</v>
       </c>
       <c r="C14">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E14">
         <v>35</v>
       </c>
       <c r="F14">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G14">
         <v>1.4</v>
       </c>
       <c r="H14">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I14">
         <v>43</v>
       </c>
       <c r="J14">
-        <v>786.0520861368799</v>
+        <v>628.270048807583</v>
       </c>
       <c r="K14">
-        <v>762.5740861368798</v>
+        <v>609.728448807583</v>
       </c>
       <c r="L14">
-        <v>21.021</v>
+        <v>16.6012</v>
       </c>
       <c r="M14">
-        <v>2.457</v>
+        <v>1.9404</v>
       </c>
       <c r="N14">
-        <v>985.5888151832055</v>
+        <v>782.6092405807511</v>
       </c>
       <c r="O14">
-        <v>6.377606208723277</v>
+        <v>7.548754584419799</v>
       </c>
       <c r="P14">
-        <v>85.19950415984916</v>
+        <v>121.2198158403156</v>
       </c>
       <c r="Q14">
-        <v>4.538586607084206</v>
+        <v>3.7744103204676</v>
       </c>
       <c r="R14">
-        <v>81.54030960830801</v>
+        <v>75.46187786524845</v>
       </c>
       <c r="S14">
-        <v>629.1099092368705</v>
+        <v>392.9378104953978</v>
       </c>
       <c r="T14">
-        <v>50.71557149305264</v>
+        <v>53.58191245038577</v>
       </c>
       <c r="U14">
-        <v>175.9568822244047</v>
+        <v>150.8201847637754</v>
       </c>
       <c r="V14">
-        <v>221.310064409394</v>
+        <v>195.7162313095586</v>
       </c>
       <c r="W14">
-        <v>388.9404169308372</v>
+        <v>357.1689375913233</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15">
-        <v>630</v>
+        <v>590</v>
       </c>
       <c r="B15">
         <v>0.25</v>
       </c>
       <c r="C15">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="E15">
         <v>35</v>
       </c>
       <c r="F15">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G15">
         <v>1.4</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I15">
         <v>43</v>
       </c>
       <c r="J15">
-        <v>846.9721365293085</v>
+        <v>733.6486137277545</v>
       </c>
       <c r="K15">
-        <v>821.6881365293085</v>
+        <v>711.7358137277546</v>
       </c>
       <c r="L15">
-        <v>22.63800000000001</v>
+        <v>19.6196</v>
       </c>
       <c r="M15">
-        <v>2.646</v>
+        <v>2.2932</v>
       </c>
       <c r="N15">
-        <v>943.9901023247666</v>
+        <v>695.0810843914384</v>
       </c>
       <c r="O15">
-        <v>5.734432301267599</v>
+        <v>6.65213665874224</v>
       </c>
       <c r="P15">
-        <v>85.27300964920502</v>
+        <v>122.3051385613575</v>
       </c>
       <c r="Q15">
-        <v>4.082819973039455</v>
+        <v>3.226495607659969</v>
       </c>
       <c r="R15">
-        <v>80.68238911469358</v>
+        <v>74.17945849553297</v>
       </c>
       <c r="S15">
-        <v>599.2683988205854</v>
+        <v>324.459830310044</v>
       </c>
       <c r="T15">
-        <v>40.85843621399177</v>
+        <v>36.18907723534614</v>
       </c>
       <c r="U15">
-        <v>188.5252309547193</v>
+        <v>175.9568822244047</v>
       </c>
       <c r="V15">
-        <v>234.1098899427571</v>
+        <v>221.310064409394</v>
       </c>
       <c r="W15">
-        <v>405.0890709598764</v>
+        <v>388.9404169308372</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16">
-        <v>720</v>
+        <v>575</v>
       </c>
       <c r="B16">
         <v>0.25</v>
       </c>
       <c r="C16">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="E16">
         <v>35</v>
       </c>
       <c r="F16">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="G16">
         <v>1.4</v>
@@ -1440,66 +1440,66 @@
         <v>43</v>
       </c>
       <c r="J16">
-        <v>611.154979942932</v>
+        <v>790.5073274273547</v>
       </c>
       <c r="K16">
-        <v>593.817379942932</v>
+        <v>766.9089274273546</v>
       </c>
       <c r="L16">
-        <v>15.5232</v>
+        <v>21.12880000000001</v>
       </c>
       <c r="M16">
-        <v>1.8144</v>
+        <v>2.4696</v>
       </c>
       <c r="N16">
-        <v>1235.942372862823</v>
+        <v>654.2953069256099</v>
       </c>
       <c r="O16">
-        <v>11.0143009399579</v>
+        <v>6.212239554939598</v>
       </c>
       <c r="P16">
-        <v>121.6552421629633</v>
+        <v>122.5285856404107</v>
       </c>
       <c r="Q16">
-        <v>5.87197724685234</v>
+        <v>2.969196329563221</v>
       </c>
       <c r="R16">
-        <v>86.02156466993669</v>
+        <v>73.42789781187587</v>
       </c>
       <c r="S16">
-        <v>756.5135884578195</v>
+        <v>290.8647236448058</v>
       </c>
       <c r="T16">
-        <v>126.699595832033</v>
+        <v>30.23049520462444</v>
       </c>
       <c r="U16">
-        <v>125.6834873031462</v>
+        <v>188.5252309547193</v>
       </c>
       <c r="V16">
-        <v>170.1330927506484</v>
+        <v>234.1098899427571</v>
       </c>
       <c r="W16">
-        <v>326.4891241276557</v>
+        <v>405.0890709598764</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="B17">
         <v>0.25</v>
       </c>
       <c r="C17">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E17">
         <v>35</v>
       </c>
       <c r="F17">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G17">
         <v>1.4</v>
@@ -1511,344 +1511,344 @@
         <v>43</v>
       </c>
       <c r="J17">
-        <v>776.6179275787274</v>
+        <v>673.1464808652674</v>
       </c>
       <c r="K17">
-        <v>753.5011275787274</v>
+        <v>653.2804808652677</v>
       </c>
       <c r="L17">
-        <v>20.6976</v>
+        <v>17.787</v>
       </c>
       <c r="M17">
-        <v>2.4192</v>
+        <v>2.079</v>
       </c>
       <c r="N17">
-        <v>999.8065177812388</v>
+        <v>754.738356035071</v>
       </c>
       <c r="O17">
-        <v>7.15903938288276</v>
+        <v>7.087229285058847</v>
       </c>
       <c r="P17">
-        <v>125.5194450781968</v>
+        <v>121.6770277267446</v>
       </c>
       <c r="Q17">
-        <v>3.82397193841216</v>
+        <v>3.513553134547985</v>
       </c>
       <c r="R17">
-        <v>81.69093661919182</v>
+        <v>75.16544253174462</v>
       </c>
       <c r="S17">
-        <v>601.3497272787241</v>
+        <v>365.3587736087161</v>
       </c>
       <c r="T17">
-        <v>52.18157459220712</v>
+        <v>53.85990948598784</v>
       </c>
       <c r="U17">
-        <v>163.3885334940901</v>
+        <v>150.8201847637754</v>
       </c>
       <c r="V17">
-        <v>208.5120585426867</v>
+        <v>195.7162313095586</v>
       </c>
       <c r="W17">
-        <v>372.9521179019205</v>
+        <v>357.1689375913233</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18">
-        <v>630</v>
+        <v>590</v>
       </c>
       <c r="B18">
         <v>0.25</v>
       </c>
       <c r="C18">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E18">
         <v>35</v>
       </c>
       <c r="F18">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G18">
         <v>1.4</v>
       </c>
       <c r="H18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I18">
         <v>43</v>
       </c>
       <c r="J18">
-        <v>838.4555585460051</v>
+        <v>728.079307105057</v>
       </c>
       <c r="K18">
-        <v>813.4123585460052</v>
+        <v>706.4073071050569</v>
       </c>
       <c r="L18">
-        <v>22.42240000000001</v>
+        <v>19.404</v>
       </c>
       <c r="M18">
-        <v>2.6208</v>
+        <v>2.268</v>
       </c>
       <c r="N18">
-        <v>957.3658989853099</v>
+        <v>710.0720178407604</v>
       </c>
       <c r="O18">
-        <v>5.734432301267599</v>
+        <v>6.657441715318949</v>
       </c>
       <c r="P18">
-        <v>85.40711871778046</v>
+        <v>122.4026764973585</v>
       </c>
       <c r="Q18">
-        <v>4.082819973039455</v>
+        <v>3.250422002455011</v>
       </c>
       <c r="R18">
-        <v>81.22778437680618</v>
+        <v>74.60495918390572</v>
       </c>
       <c r="S18">
-        <v>603.888324562507</v>
+        <v>331.1359519469732</v>
       </c>
       <c r="T18">
-        <v>48.93480280192531</v>
+        <v>43.95161897199357</v>
       </c>
       <c r="U18">
-        <v>175.9568822244047</v>
+        <v>163.3885334940901</v>
       </c>
       <c r="V18">
-        <v>221.310064409394</v>
+        <v>208.5120585426867</v>
       </c>
       <c r="W18">
-        <v>388.9404169308372</v>
+        <v>372.9521179019205</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19">
-        <v>610</v>
+        <v>575</v>
       </c>
       <c r="B19">
         <v>0.25</v>
       </c>
       <c r="C19">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E19">
         <v>35</v>
       </c>
       <c r="F19">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G19">
         <v>1.4</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I19">
         <v>43</v>
       </c>
       <c r="J19">
-        <v>903.4369456312623</v>
+        <v>786.0520861368799</v>
       </c>
       <c r="K19">
-        <v>876.4673456312623</v>
+        <v>762.5740861368798</v>
       </c>
       <c r="L19">
-        <v>24.14720000000001</v>
+        <v>21.021</v>
       </c>
       <c r="M19">
-        <v>2.8224</v>
+        <v>2.457</v>
       </c>
       <c r="N19">
-        <v>925.4550951429043</v>
+        <v>667.538956798307</v>
       </c>
       <c r="O19">
-        <v>5.250957491853518</v>
+        <v>6.2302196085402</v>
       </c>
       <c r="P19">
-        <v>85.74307164692217</v>
+        <v>122.8832195076235</v>
       </c>
       <c r="Q19">
-        <v>3.7400807747653</v>
+        <v>2.996913395037872</v>
       </c>
       <c r="R19">
-        <v>80.8861016324616</v>
+        <v>73.95650903116423</v>
       </c>
       <c r="S19">
-        <v>581.6152271181063</v>
+        <v>297.103045158112</v>
       </c>
       <c r="T19">
-        <v>40.14057885490642</v>
+        <v>36.30688135843893</v>
       </c>
       <c r="U19">
-        <v>188.5252309547193</v>
+        <v>175.9568822244047</v>
       </c>
       <c r="V19">
-        <v>234.1098899427571</v>
+        <v>221.310064409394</v>
       </c>
       <c r="W19">
-        <v>405.0890709598764</v>
+        <v>388.9404169308372</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20">
-        <v>610</v>
+        <v>560</v>
       </c>
       <c r="B20">
         <v>0.25</v>
       </c>
       <c r="C20">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="E20">
         <v>35</v>
       </c>
       <c r="F20">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G20">
         <v>1.4</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I20">
         <v>43</v>
       </c>
       <c r="J20">
-        <v>890.8590309551305</v>
+        <v>846.9721365293085</v>
       </c>
       <c r="K20">
-        <v>864.2506309551305</v>
+        <v>821.6881365293085</v>
       </c>
       <c r="L20">
-        <v>23.82380000000001</v>
+        <v>22.63800000000001</v>
       </c>
       <c r="M20">
-        <v>2.7846</v>
+        <v>2.646</v>
       </c>
       <c r="N20">
-        <v>936.0709899763563</v>
+        <v>626.549569562946</v>
       </c>
       <c r="O20">
-        <v>5.250957491853518</v>
+        <v>5.810831293701135</v>
       </c>
       <c r="P20">
-        <v>85.65809733706895</v>
+        <v>123.1762357198427</v>
       </c>
       <c r="Q20">
-        <v>3.7400807747653</v>
+        <v>2.754374601288664</v>
       </c>
       <c r="R20">
-        <v>81.11306463986861</v>
+        <v>73.2377852472451</v>
       </c>
       <c r="S20">
-        <v>584.3706664929977</v>
+        <v>263.2181651949027</v>
       </c>
       <c r="T20">
-        <v>47.85904561591322</v>
+        <v>30.29615855758213</v>
       </c>
       <c r="U20">
-        <v>175.9568822244047</v>
+        <v>188.5252309547193</v>
       </c>
       <c r="V20">
-        <v>221.310064409394</v>
+        <v>234.1098899427571</v>
       </c>
       <c r="W20">
-        <v>388.9404169308372</v>
+        <v>405.0890709598764</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="B21">
         <v>0.25</v>
       </c>
       <c r="C21">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D21">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E21">
         <v>35</v>
       </c>
       <c r="F21">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>1.4</v>
       </c>
       <c r="H21">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I21">
         <v>43</v>
       </c>
       <c r="J21">
-        <v>959.9017547332163</v>
+        <v>776.6179275787274</v>
       </c>
       <c r="K21">
-        <v>931.2465547332164</v>
+        <v>753.5011275787274</v>
       </c>
       <c r="L21">
-        <v>25.6564</v>
+        <v>20.6976</v>
       </c>
       <c r="M21">
-        <v>2.9988</v>
+        <v>2.4192</v>
       </c>
       <c r="N21">
-        <v>907.4972646697432</v>
+        <v>683.4893722141891</v>
       </c>
       <c r="O21">
-        <v>5.019343401458325</v>
+        <v>6.227977108809716</v>
       </c>
       <c r="P21">
-        <v>85.9999381230141</v>
+        <v>122.8389890303785</v>
       </c>
       <c r="Q21">
-        <v>3.575841720388653</v>
+        <v>3.016374569128006</v>
       </c>
       <c r="R21">
-        <v>80.75171547698625</v>
+        <v>74.32766646750889</v>
       </c>
       <c r="S21">
-        <v>563.1834042857985</v>
+        <v>305.1397377346683</v>
       </c>
       <c r="T21">
-        <v>40.89317371297159</v>
+        <v>43.87645856430537</v>
       </c>
       <c r="U21">
-        <v>188.5252309547193</v>
+        <v>163.3885334940901</v>
       </c>
       <c r="V21">
-        <v>234.1098899427571</v>
+        <v>208.5120585426867</v>
       </c>
       <c r="W21">
-        <v>405.0890709598764</v>
+        <v>372.9521179019205</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="B22">
         <v>0.25</v>
       </c>
       <c r="C22">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E22">
         <v>35</v>
@@ -1860,43 +1860,43 @@
         <v>1.4</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I22">
         <v>43</v>
       </c>
       <c r="J22">
-        <v>943.2625033642558</v>
+        <v>838.4555585460051</v>
       </c>
       <c r="K22">
-        <v>915.0889033642558</v>
+        <v>813.4123585460052</v>
       </c>
       <c r="L22">
-        <v>25.2252</v>
+        <v>22.42240000000001</v>
       </c>
       <c r="M22">
-        <v>2.9484</v>
+        <v>2.6208</v>
       </c>
       <c r="N22">
-        <v>916.8625093788762</v>
+        <v>640.416746055268</v>
       </c>
       <c r="O22">
-        <v>5.019343401458325</v>
+        <v>5.819357572985085</v>
       </c>
       <c r="P22">
-        <v>85.81428750227207</v>
+        <v>123.3569731967734</v>
       </c>
       <c r="Q22">
-        <v>3.575841720388653</v>
+        <v>2.776231978242748</v>
       </c>
       <c r="R22">
-        <v>80.83201615393055</v>
+        <v>73.68564557728948</v>
       </c>
       <c r="S22">
-        <v>564.9742335792365</v>
+        <v>270.5161251475123</v>
       </c>
       <c r="T22">
-        <v>48.57293907246423</v>
+        <v>36.20639363408157</v>
       </c>
       <c r="U22">
         <v>175.9568822244047</v>
@@ -1910,16 +1910,16 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="B23">
         <v>0.25</v>
       </c>
       <c r="C23">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="E23">
         <v>35</v>
@@ -1931,43 +1931,43 @@
         <v>1.4</v>
       </c>
       <c r="H23">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I23">
         <v>43</v>
       </c>
       <c r="J23">
-        <v>1016.36656383517</v>
+        <v>903.4369456312623</v>
       </c>
       <c r="K23">
-        <v>986.0257638351703</v>
+        <v>876.4673456312623</v>
       </c>
       <c r="L23">
-        <v>27.1656</v>
+        <v>24.14720000000001</v>
       </c>
       <c r="M23">
-        <v>3.1752</v>
+        <v>2.8224</v>
       </c>
       <c r="N23">
-        <v>888.5572727655237</v>
+        <v>597.3491456850251</v>
       </c>
       <c r="O23">
-        <v>4.794365413215841</v>
+        <v>5.539438718652129</v>
       </c>
       <c r="P23">
-        <v>86.10149683709504</v>
+        <v>123.3339460636616</v>
       </c>
       <c r="Q23">
-        <v>3.416277984914116</v>
+        <v>2.597453821650932</v>
       </c>
       <c r="R23">
-        <v>80.41655259791618</v>
+        <v>72.6887509075362</v>
       </c>
       <c r="S23">
-        <v>544.2703506010268</v>
+        <v>234.2573202117724</v>
       </c>
       <c r="T23">
-        <v>41.48928180860024</v>
+        <v>30.87999661276301</v>
       </c>
       <c r="U23">
         <v>188.5252309547193</v>
@@ -1976,6 +1976,290 @@
         <v>234.1098899427571</v>
       </c>
       <c r="W23">
+        <v>405.0890709598764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24">
+        <v>550</v>
+      </c>
+      <c r="B24">
+        <v>0.25</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>170</v>
+      </c>
+      <c r="E24">
+        <v>35</v>
+      </c>
+      <c r="F24">
+        <v>65</v>
+      </c>
+      <c r="G24">
+        <v>1.4</v>
+      </c>
+      <c r="H24">
+        <v>14</v>
+      </c>
+      <c r="I24">
+        <v>43</v>
+      </c>
+      <c r="J24">
+        <v>890.8590309551305</v>
+      </c>
+      <c r="K24">
+        <v>864.2506309551305</v>
+      </c>
+      <c r="L24">
+        <v>23.82380000000001</v>
+      </c>
+      <c r="M24">
+        <v>2.7846</v>
+      </c>
+      <c r="N24">
+        <v>608.8478933473965</v>
+      </c>
+      <c r="O24">
+        <v>5.532002463493749</v>
+      </c>
+      <c r="P24">
+        <v>123.1683800669603</v>
+      </c>
+      <c r="Q24">
+        <v>2.606481531160636</v>
+      </c>
+      <c r="R24">
+        <v>72.88299674299363</v>
+      </c>
+      <c r="S24">
+        <v>239.8580407095542</v>
+      </c>
+      <c r="T24">
+        <v>36.74775248424514</v>
+      </c>
+      <c r="U24">
+        <v>175.9568822244047</v>
+      </c>
+      <c r="V24">
+        <v>221.310064409394</v>
+      </c>
+      <c r="W24">
+        <v>388.9404169308372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25">
+        <v>540</v>
+      </c>
+      <c r="B25">
+        <v>0.25</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>170</v>
+      </c>
+      <c r="E25">
+        <v>35</v>
+      </c>
+      <c r="F25">
+        <v>70</v>
+      </c>
+      <c r="G25">
+        <v>1.4</v>
+      </c>
+      <c r="H25">
+        <v>14</v>
+      </c>
+      <c r="I25">
+        <v>43</v>
+      </c>
+      <c r="J25">
+        <v>959.9017547332163</v>
+      </c>
+      <c r="K25">
+        <v>931.2465547332164</v>
+      </c>
+      <c r="L25">
+        <v>25.6564</v>
+      </c>
+      <c r="M25">
+        <v>2.9988</v>
+      </c>
+      <c r="N25">
+        <v>565.4259303029163</v>
+      </c>
+      <c r="O25">
+        <v>5.262232150963243</v>
+      </c>
+      <c r="P25">
+        <v>123.1686726152844</v>
+      </c>
+      <c r="Q25">
+        <v>2.435902080944473</v>
+      </c>
+      <c r="R25">
+        <v>71.8869864891025</v>
+      </c>
+      <c r="S25">
+        <v>203.2948316118474</v>
+      </c>
+      <c r="T25">
+        <v>31.32860814166937</v>
+      </c>
+      <c r="U25">
+        <v>188.5252309547193</v>
+      </c>
+      <c r="V25">
+        <v>234.1098899427571</v>
+      </c>
+      <c r="W25">
+        <v>405.0890709598764</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26">
+        <v>545</v>
+      </c>
+      <c r="B26">
+        <v>0.25</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>180</v>
+      </c>
+      <c r="E26">
+        <v>35</v>
+      </c>
+      <c r="F26">
+        <v>65</v>
+      </c>
+      <c r="G26">
+        <v>1.4</v>
+      </c>
+      <c r="H26">
+        <v>14</v>
+      </c>
+      <c r="I26">
+        <v>43</v>
+      </c>
+      <c r="J26">
+        <v>943.2625033642558</v>
+      </c>
+      <c r="K26">
+        <v>915.0889033642558</v>
+      </c>
+      <c r="L26">
+        <v>25.2252</v>
+      </c>
+      <c r="M26">
+        <v>2.9484</v>
+      </c>
+      <c r="N26">
+        <v>586.1937947169893</v>
+      </c>
+      <c r="O26">
+        <v>5.419916329852309</v>
+      </c>
+      <c r="P26">
+        <v>123.7135078907342</v>
+      </c>
+      <c r="Q26">
+        <v>2.533044828959673</v>
+      </c>
+      <c r="R26">
+        <v>72.66978438335039</v>
+      </c>
+      <c r="S26">
+        <v>215.7890335190692</v>
+      </c>
+      <c r="T26">
+        <v>38.01806821324531</v>
+      </c>
+      <c r="U26">
+        <v>175.9568822244047</v>
+      </c>
+      <c r="V26">
+        <v>221.310064409394</v>
+      </c>
+      <c r="W26">
+        <v>388.9404169308372</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27">
+        <v>535</v>
+      </c>
+      <c r="B27">
+        <v>0.25</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>180</v>
+      </c>
+      <c r="E27">
+        <v>35</v>
+      </c>
+      <c r="F27">
+        <v>70</v>
+      </c>
+      <c r="G27">
+        <v>1.4</v>
+      </c>
+      <c r="H27">
+        <v>14</v>
+      </c>
+      <c r="I27">
+        <v>43</v>
+      </c>
+      <c r="J27">
+        <v>1016.36656383517</v>
+      </c>
+      <c r="K27">
+        <v>986.0257638351703</v>
+      </c>
+      <c r="L27">
+        <v>27.1656</v>
+      </c>
+      <c r="M27">
+        <v>3.1752</v>
+      </c>
+      <c r="N27">
+        <v>541.0333326956202</v>
+      </c>
+      <c r="O27">
+        <v>5.156945476216142</v>
+      </c>
+      <c r="P27">
+        <v>123.8022008141992</v>
+      </c>
+      <c r="Q27">
+        <v>2.366221874360991</v>
+      </c>
+      <c r="R27">
+        <v>71.67808860392462</v>
+      </c>
+      <c r="S27">
+        <v>177.5782915152555</v>
+      </c>
+      <c r="T27">
+        <v>32.40457390652534</v>
+      </c>
+      <c r="U27">
+        <v>188.5252309547193</v>
+      </c>
+      <c r="V27">
+        <v>234.1098899427571</v>
+      </c>
+      <c r="W27">
         <v>405.0890709598764</v>
       </c>
     </row>

--- a/Codemig/System/Optimization_results_1Hz.xlsx
+++ b/Codemig/System/Optimization_results_1Hz.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,96 +348,96 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1">
-        <v>785</v>
+        <v>1115</v>
       </c>
       <c r="B1">
         <v>0.25</v>
       </c>
       <c r="C1">
-        <v>1.900000000000001</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="E1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F1">
         <v>65</v>
       </c>
       <c r="G1">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I1">
         <v>43</v>
       </c>
       <c r="J1">
-        <v>1013.58950643983</v>
+        <v>642.1388619574529</v>
       </c>
       <c r="K1">
-        <v>988.5463064398298</v>
+        <v>623.4188619574529</v>
       </c>
       <c r="L1">
-        <v>22.42240000000001</v>
+        <v>16.38</v>
       </c>
       <c r="M1">
-        <v>2.6208</v>
+        <v>2.34</v>
       </c>
       <c r="N1">
-        <v>798.764382850021</v>
+        <v>1312.479092523963</v>
       </c>
       <c r="O1">
-        <v>13.95524350529493</v>
+        <v>25.11801233988692</v>
       </c>
       <c r="P1">
-        <v>95.2594391643165</v>
+        <v>98.69523048593121</v>
       </c>
       <c r="Q1">
-        <v>6.089541041486672</v>
+        <v>18.70542744002218</v>
       </c>
       <c r="R1">
-        <v>66.57889128846321</v>
+        <v>91.12311417161752</v>
       </c>
       <c r="S1">
-        <v>463.2386791351869</v>
+        <v>609.9840635979874</v>
       </c>
       <c r="T1">
-        <v>25.38592221888523</v>
+        <v>338.3026970359722</v>
       </c>
       <c r="U1">
         <v>175.9568822244047</v>
       </c>
       <c r="V1">
-        <v>226.2570476464233</v>
+        <v>236.1577134273773</v>
       </c>
       <c r="W1">
-        <v>407.2577140776693</v>
+        <v>475.1149809767682</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2">
-        <v>780</v>
+        <v>945</v>
       </c>
       <c r="B2">
         <v>0.25</v>
       </c>
       <c r="C2">
-        <v>1.900000000000001</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F2">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G2">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H2">
         <v>14</v>
@@ -446,140 +446,140 @@
         <v>43</v>
       </c>
       <c r="J2">
-        <v>1002.715622127057</v>
+        <v>642.1388619574529</v>
       </c>
       <c r="K2">
-        <v>978.4980221270572</v>
+        <v>623.4188619574529</v>
       </c>
       <c r="L2">
-        <v>21.68320000000001</v>
+        <v>16.38</v>
       </c>
       <c r="M2">
-        <v>2.5344</v>
+        <v>2.34</v>
       </c>
       <c r="N2">
-        <v>830.9699216212325</v>
+        <v>1014.034136028125</v>
       </c>
       <c r="O2">
-        <v>13.71306608195182</v>
+        <v>22.98944812764772</v>
       </c>
       <c r="P2">
-        <v>95.48334682672305</v>
+        <v>133.3578865244592</v>
       </c>
       <c r="Q2">
-        <v>6.097695708786752</v>
+        <v>11.89010766720829</v>
       </c>
       <c r="R2">
-        <v>67.52200530799368</v>
+        <v>84.11553224911336</v>
       </c>
       <c r="S2">
-        <v>482.2740313452952</v>
+        <v>408.686080564657</v>
       </c>
       <c r="T2">
-        <v>37.63156631543216</v>
+        <v>224.2351109053257</v>
       </c>
       <c r="U2">
-        <v>150.8201847637754</v>
+        <v>175.9568822244047</v>
       </c>
       <c r="V2">
-        <v>200.6678577548101</v>
+        <v>236.1577134273773</v>
       </c>
       <c r="W2">
-        <v>376.2375019515773</v>
+        <v>475.1149809767682</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3">
-        <v>645</v>
+        <v>1100</v>
       </c>
       <c r="B3">
         <v>0.25</v>
       </c>
       <c r="C3">
-        <v>1.900000000000001</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>65</v>
       </c>
       <c r="G3">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H3">
         <v>14</v>
       </c>
       <c r="I3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3">
-        <v>1158.388007359806</v>
+        <v>642.1388619574529</v>
       </c>
       <c r="K3">
-        <v>1129.767207359806</v>
+        <v>623.4188619574529</v>
       </c>
       <c r="L3">
-        <v>25.62560000000001</v>
+        <v>16.38</v>
       </c>
       <c r="M3">
-        <v>2.9952</v>
+        <v>2.34</v>
       </c>
       <c r="N3">
-        <v>702.2573567632398</v>
+        <v>1304.86630722764</v>
       </c>
       <c r="O3">
-        <v>8.153447811757486</v>
+        <v>34.51966911457598</v>
       </c>
       <c r="P3">
-        <v>96.89615149648225</v>
+        <v>131.8727598053206</v>
       </c>
       <c r="Q3">
-        <v>3.546350240819923</v>
+        <v>14.2957594237625</v>
       </c>
       <c r="R3">
-        <v>66.30094404517756</v>
+        <v>70.43980010160286</v>
       </c>
       <c r="S3">
-        <v>381.9109492202707</v>
+        <v>596.3525929004857</v>
       </c>
       <c r="T3">
-        <v>17.34920012388543</v>
+        <v>327.1013639813879</v>
       </c>
       <c r="U3">
         <v>175.9568822244047</v>
       </c>
       <c r="V3">
-        <v>226.2570476464233</v>
+        <v>236.1577134273773</v>
       </c>
       <c r="W3">
-        <v>407.2577140776693</v>
+        <v>475.1149809767682</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4">
-        <v>650</v>
+        <v>1045</v>
       </c>
       <c r="B4">
         <v>0.25</v>
       </c>
       <c r="C4">
-        <v>1.900000000000001</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="E4">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F4">
         <v>55</v>
       </c>
       <c r="G4">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H4">
         <v>14</v>
@@ -588,69 +588,69 @@
         <v>43</v>
       </c>
       <c r="J4">
-        <v>1128.055074892939</v>
+        <v>599.3485972234614</v>
       </c>
       <c r="K4">
-        <v>1100.810274892939</v>
+        <v>581.9245972234614</v>
       </c>
       <c r="L4">
-        <v>24.39360000000001</v>
+        <v>15.246</v>
       </c>
       <c r="M4">
-        <v>2.8512</v>
+        <v>2.178</v>
       </c>
       <c r="N4">
-        <v>736.0097055011288</v>
+        <v>1466.182264902608</v>
       </c>
       <c r="O4">
-        <v>8.327285243131026</v>
+        <v>30.03104814291652</v>
       </c>
       <c r="P4">
-        <v>96.94134576662314</v>
+        <v>132.1190961317096</v>
       </c>
       <c r="Q4">
-        <v>3.68113941981168</v>
+        <v>16.05713829562649</v>
       </c>
       <c r="R4">
-        <v>67.1144721819967</v>
+        <v>95.10622227571582</v>
       </c>
       <c r="S4">
-        <v>405.7577149834041</v>
+        <v>657.3530345002087</v>
       </c>
       <c r="T4">
-        <v>26.08398443833181</v>
+        <v>405.9814724592706</v>
       </c>
       <c r="U4">
         <v>150.8201847637754</v>
       </c>
       <c r="V4">
-        <v>200.6678577548101</v>
+        <v>210.5779689608598</v>
       </c>
       <c r="W4">
-        <v>376.2375019515773</v>
+        <v>435.0885578435083</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5">
-        <v>560</v>
+        <v>900</v>
       </c>
       <c r="B5">
         <v>0.25</v>
       </c>
       <c r="C5">
-        <v>1.900000000000001</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="E5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F5">
         <v>65</v>
       </c>
       <c r="G5">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H5">
         <v>14</v>
@@ -659,46 +659,117 @@
         <v>43</v>
       </c>
       <c r="J5">
-        <v>1303.186508279781</v>
+        <v>676.1922565562862</v>
       </c>
       <c r="K5">
-        <v>1270.988108279781</v>
+        <v>655.6002565562864</v>
       </c>
       <c r="L5">
-        <v>28.8288</v>
+        <v>18.018</v>
       </c>
       <c r="M5">
-        <v>3.3696</v>
+        <v>2.574</v>
       </c>
       <c r="N5">
-        <v>666.3181388716607</v>
+        <v>986.5401952503233</v>
       </c>
       <c r="O5">
-        <v>5.544530138491268</v>
+        <v>20.16340442484668</v>
       </c>
       <c r="P5">
-        <v>98.34151843895816</v>
+        <v>133.7348876098121</v>
       </c>
       <c r="Q5">
-        <v>2.453103188196902</v>
+        <v>10.37728417877422</v>
       </c>
       <c r="R5">
-        <v>67.06469710479976</v>
+        <v>83.92183646537379</v>
       </c>
       <c r="S5">
-        <v>351.2978137831814</v>
+        <v>391.3007770441443</v>
       </c>
       <c r="T5">
-        <v>13.56045726964989</v>
+        <v>218.4840327797976</v>
       </c>
       <c r="U5">
         <v>175.9568822244047</v>
       </c>
       <c r="V5">
-        <v>226.2570476464233</v>
+        <v>236.1577134273773</v>
       </c>
       <c r="W5">
-        <v>407.2577140776693</v>
+        <v>464.7420227996755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>1010</v>
+      </c>
+      <c r="B6">
+        <v>0.25</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>120</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>55</v>
+      </c>
+      <c r="G6">
+        <v>1.2</v>
+      </c>
+      <c r="H6">
+        <v>14</v>
+      </c>
+      <c r="I6">
+        <v>43</v>
+      </c>
+      <c r="J6">
+        <v>630.5942935784649</v>
+      </c>
+      <c r="K6">
+        <v>611.586293578465</v>
+      </c>
+      <c r="L6">
+        <v>16.632</v>
+      </c>
+      <c r="M6">
+        <v>2.376</v>
+      </c>
+      <c r="N6">
+        <v>1426.670824400876</v>
+      </c>
+      <c r="O6">
+        <v>27.41463718109426</v>
+      </c>
+      <c r="P6">
+        <v>132.4555414908276</v>
+      </c>
+      <c r="Q6">
+        <v>14.41676732137753</v>
+      </c>
+      <c r="R6">
+        <v>94.4686099209313</v>
+      </c>
+      <c r="S6">
+        <v>621.793641538816</v>
+      </c>
+      <c r="T6">
+        <v>406.9252251478499</v>
+      </c>
+      <c r="U6">
+        <v>150.8201847637754</v>
+      </c>
+      <c r="V6">
+        <v>210.5779689608598</v>
+      </c>
+      <c r="W6">
+        <v>427.1581317410107</v>
       </c>
     </row>
   </sheetData>
